--- a/fsdata/펄어비스.xlsx
+++ b/fsdata/펄어비스.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project_A\fsdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fintech\Bit_Project1\fsdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C08F403-51E6-4376-8791-D3928787DB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB9C95F-ACD6-4BB9-AB1F-1391FC258A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11655" yWindow="1380" windowWidth="16710" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_bs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="643">
   <si>
     <t>[D210000] Statement of financial position, current/non-current - Consolidated financial statements (Unit: KRW)</t>
   </si>
@@ -1945,6 +1945,18 @@
   </si>
   <si>
     <t>단기차입금의차입</t>
+  </si>
+  <si>
+    <t>영업수익</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타영업손익</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타영업수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2358,7 +2370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A29" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5640,7 +5652,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5729,7 +5741,7 @@
         <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>640</v>
       </c>
       <c r="D4" t="s">
         <v>252</v>
@@ -5963,7 +5975,7 @@
         <v>212</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>641</v>
       </c>
       <c r="D10" t="s">
         <v>258</v>
@@ -6001,7 +6013,7 @@
         <v>213</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>642</v>
       </c>
       <c r="D11" t="s">
         <v>259</v>
@@ -6689,6 +6701,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
